--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_8_30.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_8_30.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2390787.325163058</v>
+        <v>2388242.139089772</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283187</v>
+        <v>416855.1052283183</v>
       </c>
     </row>
     <row r="9">
@@ -659,25 +659,25 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>326.2097809358198</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>13.784170020795</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -707,25 +707,25 @@
         <v>54.47840257481171</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
-        <v>289.2221598733561</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -814,16 +814,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -865,16 +865,16 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>56.72699744179295</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
@@ -883,7 +883,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>171.7498680634315</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -893,22 +893,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>5.983388191319379</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>13.784170020795</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -941,13 +941,13 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.4784025748117</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>183.8819774006273</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -962,7 +962,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -1099,28 +1099,28 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S7" t="n">
-        <v>129.0246247964035</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>9.220846587375984</v>
       </c>
     </row>
     <row r="8">
@@ -1133,25 +1133,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>184.8204206136324</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>12.9169039459368</v>
+        <v>412.9169039459368</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>315.0408840752156</v>
       </c>
       <c r="I8" t="n">
-        <v>118.4960408938903</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1187,16 +1187,16 @@
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.1547862223006</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>207.6269737408543</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -1291,19 +1291,19 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>103.6885426291283</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1336,28 +1336,28 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>129.1731816677913</v>
       </c>
       <c r="S10" t="n">
-        <v>205.3658819001186</v>
+        <v>98.72860659578222</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>223.3729047207587</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1376,13 +1376,13 @@
         <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722614</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187868</v>
       </c>
       <c r="H11" t="n">
         <v>283.1540821444137</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1528,25 +1528,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>45.66054613217645</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,10 +1573,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
         <v>217.4054503272883</v>
@@ -1594,7 +1594,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>192.8396132741341</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -1619,7 +1619,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>409.8033385187861</v>
+        <v>409.8033385187868</v>
       </c>
       <c r="H14" t="n">
         <v>283.1540821444137</v>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1765,22 +1765,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>120.7871326503968</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>108.2950343703253</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1810,7 +1810,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
@@ -1895,7 +1895,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T17" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U17" t="n">
         <v>250.9057009881286</v>
@@ -2002,22 +2002,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>103.8784673763403</v>
       </c>
       <c r="G19" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>83.06560892428168</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2245,16 +2245,16 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>108.2950343703266</v>
+        <v>102.1557845699818</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2284,7 +2284,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2479,22 +2479,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>27.02919805176109</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,7 +2521,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2539,7 +2539,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>38.95525409458268</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -2716,19 +2716,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>3.006892987834567</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2758,7 +2758,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
@@ -2776,7 +2776,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>19.86507844888319</v>
       </c>
       <c r="Y28" t="n">
         <v>218.5846533520948</v>
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2947,16 +2947,16 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
@@ -2995,7 +2995,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
@@ -3016,7 +3016,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>161.3555494301526</v>
+        <v>213.3849150459366</v>
       </c>
     </row>
     <row r="32">
@@ -3184,10 +3184,10 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>73.93222849083782</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
         <v>148.6154730182124</v>
@@ -3199,10 +3199,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>81.26583631856552</v>
@@ -3241,13 +3241,13 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V34" t="n">
-        <v>245.8796921214435</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
         <v>225.7096553890372</v>
@@ -3275,10 +3275,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
-        <v>406.8760457417109</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>409.8033385187866</v>
+        <v>409.803338518787</v>
       </c>
       <c r="H35" t="n">
         <v>283.1540821444137</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3430,19 +3430,19 @@
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>83.06560892428168</v>
+        <v>20.88994825141761</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
@@ -3515,7 +3515,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>409.8033385187866</v>
+        <v>409.803338518787</v>
       </c>
       <c r="H38" t="n">
         <v>283.1540821444137</v>
@@ -3551,13 +3551,13 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U38" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V38" t="n">
         <v>327.7522584701349</v>
@@ -3664,22 +3664,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>18.70843787977307</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>83.06560892428168</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
@@ -3740,7 +3740,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
-        <v>365.2728917710071</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
         <v>354.683041620683</v>
@@ -3749,7 +3749,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417126</v>
       </c>
       <c r="G41" t="n">
         <v>409.8033385187866</v>
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3901,22 +3901,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>164.9367233701397</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S43" t="n">
         <v>181.0262860016446</v>
@@ -3958,7 +3958,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>83.8728463917182</v>
       </c>
       <c r="X43" t="n">
         <v>225.7096553890372</v>
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4135,13 +4135,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>103.8784673763408</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
@@ -4150,7 +4150,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>83.06560892428168</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
@@ -4304,43 +4304,43 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1233.603060210037</v>
+        <v>1289.017815868389</v>
       </c>
       <c r="C2" t="n">
-        <v>864.6405432696254</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="D2" t="n">
-        <v>864.6405432696254</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="E2" t="n">
-        <v>478.8522906713811</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="F2" t="n">
-        <v>67.86638588177355</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="G2" t="n">
-        <v>53.94298182036445</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H2" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I2" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533139</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K2" t="n">
         <v>463.9616490733126</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N2" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O2" t="n">
         <v>2238.843319642689</v>
@@ -4352,28 +4352,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R2" t="n">
-        <v>2642.120401548716</v>
+        <v>2642.120401548715</v>
       </c>
       <c r="S2" t="n">
-        <v>2642.120401548716</v>
+        <v>2465.942913862885</v>
       </c>
       <c r="T2" t="n">
-        <v>2642.120401548716</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U2" t="n">
-        <v>2642.120401548716</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="V2" t="n">
-        <v>2349.976805717043</v>
+        <v>1662.483574129469</v>
       </c>
       <c r="W2" t="n">
-        <v>1997.208150446929</v>
+        <v>1662.483574129469</v>
       </c>
       <c r="X2" t="n">
-        <v>1623.742392185849</v>
+        <v>1289.017815868389</v>
       </c>
       <c r="Y2" t="n">
-        <v>1233.603060210037</v>
+        <v>1289.017815868389</v>
       </c>
     </row>
     <row r="3">
@@ -4383,55 +4383,55 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170825</v>
       </c>
       <c r="C3" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359555</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747041</v>
       </c>
       <c r="E3" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692486</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961338</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673422</v>
       </c>
       <c r="I3" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J3" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K3" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L3" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M3" t="n">
-        <v>1237.953133915166</v>
+        <v>1194.968834417901</v>
       </c>
       <c r="N3" t="n">
-        <v>1748.695370517453</v>
+        <v>1748.695370517452</v>
       </c>
       <c r="O3" t="n">
-        <v>2188.831293537797</v>
+        <v>2188.831293537796</v>
       </c>
       <c r="P3" t="n">
-        <v>2525.076107152626</v>
+        <v>2525.076107152625</v>
       </c>
       <c r="Q3" t="n">
         <v>2697.149091018222</v>
       </c>
       <c r="R3" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S3" t="n">
         <v>2488.762748073963</v>
@@ -4446,10 +4446,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W3" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X3" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y3" t="n">
         <v>1156.713312237151</v>
@@ -4462,31 +4462,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>372.9958041606071</v>
+        <v>201.8560754027575</v>
       </c>
       <c r="C4" t="n">
-        <v>204.0596212327002</v>
+        <v>201.8560754027575</v>
       </c>
       <c r="D4" t="n">
-        <v>53.94298182036445</v>
+        <v>201.8560754027575</v>
       </c>
       <c r="E4" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="F4" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="G4" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="H4" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="I4" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J4" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="K4" t="n">
         <v>110.2451748866326</v>
@@ -4513,25 +4513,25 @@
         <v>728.1289842064342</v>
       </c>
       <c r="S4" t="n">
-        <v>728.1289842064342</v>
+        <v>513.8405610245969</v>
       </c>
       <c r="T4" t="n">
-        <v>728.1289842064342</v>
+        <v>513.8405610245969</v>
       </c>
       <c r="U4" t="n">
-        <v>728.1289842064342</v>
+        <v>456.5405636086444</v>
       </c>
       <c r="V4" t="n">
-        <v>728.1289842064342</v>
+        <v>201.8560754027575</v>
       </c>
       <c r="W4" t="n">
-        <v>728.1289842064342</v>
+        <v>201.8560754027575</v>
       </c>
       <c r="X4" t="n">
-        <v>728.1289842064342</v>
+        <v>201.8560754027575</v>
       </c>
       <c r="Y4" t="n">
-        <v>554.6442689908469</v>
+        <v>201.8560754027575</v>
       </c>
     </row>
     <row r="5">
@@ -4541,43 +4541,43 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>808.0839286340174</v>
+        <v>1222.906241876376</v>
       </c>
       <c r="C5" t="n">
-        <v>439.1214116936057</v>
+        <v>1222.906241876376</v>
       </c>
       <c r="D5" t="n">
-        <v>80.85571308685519</v>
+        <v>864.6405432696253</v>
       </c>
       <c r="E5" t="n">
-        <v>74.81188663097703</v>
+        <v>478.852290671381</v>
       </c>
       <c r="F5" t="n">
-        <v>67.86638588177355</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="G5" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="H5" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="I5" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224074</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N5" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O5" t="n">
         <v>2238.843319642689</v>
@@ -4589,28 +4589,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2642.120401548716</v>
+        <v>2642.120401548715</v>
       </c>
       <c r="S5" t="n">
-        <v>2642.120401548716</v>
+        <v>2465.942913862885</v>
       </c>
       <c r="T5" t="n">
-        <v>2642.120401548716</v>
+        <v>2280.203542751141</v>
       </c>
       <c r="U5" t="n">
-        <v>2642.120401548716</v>
+        <v>2280.203542751141</v>
       </c>
       <c r="V5" t="n">
-        <v>2311.057514205145</v>
+        <v>1949.14065540757</v>
       </c>
       <c r="W5" t="n">
-        <v>1958.288858935031</v>
+        <v>1596.372000137456</v>
       </c>
       <c r="X5" t="n">
-        <v>1584.823100673951</v>
+        <v>1222.906241876376</v>
       </c>
       <c r="Y5" t="n">
-        <v>1194.683768698139</v>
+        <v>1222.906241876376</v>
       </c>
     </row>
     <row r="6">
@@ -4641,7 +4641,7 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I6" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J6" t="n">
         <v>129.2001442204943</v>
@@ -4650,7 +4650,7 @@
         <v>384.4474646615928</v>
       </c>
       <c r="L6" t="n">
-        <v>789.0633827572647</v>
+        <v>670.8219208598713</v>
       </c>
       <c r="M6" t="n">
         <v>1194.968834417902</v>
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="C7" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="D7" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="E7" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="F7" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="G7" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="H7" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="I7" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J7" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="K7" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L7" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M7" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R7" t="n">
-        <v>728.1289842064344</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="S7" t="n">
-        <v>597.8010803716834</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="T7" t="n">
-        <v>597.8010803716834</v>
+        <v>352.67413830922</v>
       </c>
       <c r="U7" t="n">
-        <v>308.6274700262513</v>
+        <v>352.67413830922</v>
       </c>
       <c r="V7" t="n">
-        <v>53.94298182036445</v>
+        <v>352.67413830922</v>
       </c>
       <c r="W7" t="n">
-        <v>53.94298182036445</v>
+        <v>63.25696827225937</v>
       </c>
       <c r="X7" t="n">
-        <v>53.94298182036445</v>
+        <v>63.25696827225937</v>
       </c>
       <c r="Y7" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
     </row>
     <row r="8">
@@ -4778,28 +4778,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1710.685703078436</v>
+        <v>982.8866731097546</v>
       </c>
       <c r="C8" t="n">
-        <v>1341.723186138024</v>
+        <v>796.199379560631</v>
       </c>
       <c r="D8" t="n">
-        <v>983.457487531274</v>
+        <v>796.199379560631</v>
       </c>
       <c r="E8" t="n">
-        <v>597.6692349330297</v>
+        <v>796.199379560631</v>
       </c>
       <c r="F8" t="n">
-        <v>186.6833301434222</v>
+        <v>789.2538788114275</v>
       </c>
       <c r="G8" t="n">
-        <v>173.6359524202537</v>
+        <v>372.1660970478549</v>
       </c>
       <c r="H8" t="n">
-        <v>173.6359524202537</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J8" t="n">
         <v>242.5828808341008</v>
@@ -4814,13 +4814,13 @@
         <v>1830.581063083657</v>
       </c>
       <c r="N8" t="n">
-        <v>2381.261620430141</v>
+        <v>2024.91527597564</v>
       </c>
       <c r="O8" t="n">
-        <v>2551.430645747101</v>
+        <v>2341.238804993794</v>
       </c>
       <c r="P8" t="n">
-        <v>2662.164970996627</v>
+        <v>2451.973130243321</v>
       </c>
       <c r="Q8" t="n">
         <v>2697.149091018222</v>
@@ -4835,19 +4835,19 @@
         <v>2697.149091018222</v>
       </c>
       <c r="U8" t="n">
-        <v>2697.149091018222</v>
+        <v>2443.457387763373</v>
       </c>
       <c r="V8" t="n">
-        <v>2697.149091018222</v>
+        <v>2112.394500419802</v>
       </c>
       <c r="W8" t="n">
-        <v>2697.149091018222</v>
+        <v>1759.625845149688</v>
       </c>
       <c r="X8" t="n">
-        <v>2487.42487511837</v>
+        <v>1759.625845149688</v>
       </c>
       <c r="Y8" t="n">
-        <v>2097.285543142558</v>
+        <v>1369.486513173876</v>
       </c>
     </row>
     <row r="9">
@@ -4872,25 +4872,25 @@
         <v>338.2052143260214</v>
       </c>
       <c r="G9" t="n">
-        <v>200.7638166852434</v>
+        <v>200.7638166852433</v>
       </c>
       <c r="H9" t="n">
-        <v>99.84783883004796</v>
+        <v>99.84783883004795</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J9" t="n">
-        <v>53.94298182036445</v>
+        <v>172.6022336772601</v>
       </c>
       <c r="K9" t="n">
-        <v>383.3713861261743</v>
+        <v>240.2100533406172</v>
       </c>
       <c r="L9" t="n">
-        <v>800.9452297060877</v>
+        <v>744.5715932067358</v>
       </c>
       <c r="M9" t="n">
-        <v>1441.490579173192</v>
+        <v>972.6029207988472</v>
       </c>
       <c r="N9" t="n">
         <v>1640.147320825857</v>
@@ -4936,31 +4936,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>625.6447993885844</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="C10" t="n">
-        <v>456.7086164606775</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="D10" t="n">
-        <v>306.5919770483417</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="E10" t="n">
-        <v>158.6788834659486</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="F10" t="n">
-        <v>158.6788834659486</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="G10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="H10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="I10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="K10" t="n">
         <v>154.9909114159743</v>
@@ -4984,28 +4984,28 @@
         <v>1053.877663279709</v>
       </c>
       <c r="R10" t="n">
-        <v>1053.877663279709</v>
+        <v>923.3997019991118</v>
       </c>
       <c r="S10" t="n">
-        <v>846.4373785321145</v>
+        <v>823.6738367508469</v>
       </c>
       <c r="T10" t="n">
-        <v>846.4373785321145</v>
+        <v>598.0446400632119</v>
       </c>
       <c r="U10" t="n">
-        <v>846.4373785321145</v>
+        <v>598.0446400632119</v>
       </c>
       <c r="V10" t="n">
-        <v>846.4373785321145</v>
+        <v>343.360151857325</v>
       </c>
       <c r="W10" t="n">
-        <v>846.4373785321145</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="X10" t="n">
-        <v>846.4373785321145</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="Y10" t="n">
-        <v>625.6447993885844</v>
+        <v>53.94298182036444</v>
       </c>
     </row>
     <row r="11">
@@ -5021,55 +5021,55 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E11" t="n">
         <v>1204.759558406469</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168615</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192596</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075794</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U11" t="n">
         <v>4151.812499466573</v>
@@ -5103,7 +5103,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F12" t="n">
         <v>314.2396613568978</v>
@@ -5112,34 +5112,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J12" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="K12" t="n">
-        <v>577.3880777468471</v>
+        <v>214.9229991561138</v>
       </c>
       <c r="L12" t="n">
-        <v>577.3880777468471</v>
+        <v>710.2486053718725</v>
       </c>
       <c r="M12" t="n">
-        <v>1174.766565373399</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N12" t="n">
-        <v>1344.266747951537</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O12" t="n">
-        <v>1896.176478190824</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P12" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q12" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>789.7592298206043</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C13" t="n">
-        <v>620.8230468926974</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="D13" t="n">
-        <v>470.7064074803617</v>
+        <v>363.7369613277355</v>
       </c>
       <c r="E13" t="n">
-        <v>322.7933138979686</v>
+        <v>363.7369613277355</v>
       </c>
       <c r="F13" t="n">
-        <v>175.9033664000582</v>
+        <v>317.6151975578603</v>
       </c>
       <c r="G13" t="n">
-        <v>175.9033664000582</v>
+        <v>317.6151975578603</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000582</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P13" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2446.963083580261</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T13" t="n">
-        <v>2227.361618603202</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U13" t="n">
-        <v>1938.2863919474</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V13" t="n">
-        <v>1683.601903741513</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W13" t="n">
-        <v>1394.184733704552</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X13" t="n">
-        <v>1166.195182806535</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y13" t="n">
-        <v>971.4076946508441</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="14">
@@ -5258,13 +5258,13 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G14" t="n">
         <v>379.8308874362686</v>
@@ -5273,25 +5273,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075808</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P14" t="n">
         <v>4194.413870694707</v>
@@ -5352,28 +5352,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J15" t="n">
-        <v>243.4633055756266</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K15" t="n">
-        <v>577.3880777468471</v>
+        <v>251.562654109227</v>
       </c>
       <c r="L15" t="n">
-        <v>1072.713683962606</v>
+        <v>746.8882603249857</v>
       </c>
       <c r="M15" t="n">
-        <v>1670.092171589158</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="N15" t="n">
-        <v>2297.690135143765</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="O15" t="n">
-        <v>2553.061288060775</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P15" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q15" t="n">
         <v>2553.061288060775</v>
@@ -5410,22 +5410,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>513.8536007400699</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C16" t="n">
-        <v>344.917417812163</v>
+        <v>391.8463960427007</v>
       </c>
       <c r="D16" t="n">
-        <v>344.917417812163</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E16" t="n">
-        <v>344.917417812163</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F16" t="n">
-        <v>344.917417812163</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G16" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H16" t="n">
         <v>93.81666304797187</v>
@@ -5434,52 +5434,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782941</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038328</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L16" t="n">
-        <v>826.140538179773</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M16" t="n">
-        <v>1248.150240910808</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570816</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279801</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P16" t="n">
-        <v>2327.76484885336</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.963083580259</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2379.917379832661</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487566</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510507</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U16" t="n">
-        <v>1688.385853854705</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V16" t="n">
-        <v>1433.701365648818</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W16" t="n">
-        <v>1144.284195611857</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X16" t="n">
-        <v>916.2946447138397</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y16" t="n">
-        <v>695.5020655703096</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="17">
@@ -5504,28 +5504,28 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192571</v>
       </c>
       <c r="J17" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O17" t="n">
         <v>3640.42229106801</v>
@@ -5592,28 +5592,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J18" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K18" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L18" t="n">
-        <v>589.1422692637306</v>
+        <v>315.9123021921482</v>
       </c>
       <c r="M18" t="n">
-        <v>1186.520756890282</v>
+        <v>913.2907898187001</v>
       </c>
       <c r="N18" t="n">
-        <v>1814.118720444889</v>
+        <v>1540.888753373307</v>
       </c>
       <c r="O18" t="n">
-        <v>2366.028450684176</v>
+        <v>2092.798483612594</v>
       </c>
       <c r="P18" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q18" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5650,19 +5650,19 @@
         <v>513.8536007400712</v>
       </c>
       <c r="C19" t="n">
-        <v>344.9174178121643</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="D19" t="n">
-        <v>344.9174178121643</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="E19" t="n">
-        <v>344.9174178121643</v>
+        <v>365.9405071576781</v>
       </c>
       <c r="F19" t="n">
-        <v>344.9174178121643</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G19" t="n">
-        <v>177.7213185270443</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H19" t="n">
         <v>93.81666304797187</v>
@@ -5738,34 +5738,34 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G20" t="n">
         <v>379.8308874362683</v>
       </c>
       <c r="H20" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
         <v>2950.898526355938</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P20" t="n">
         <v>4194.413870694707</v>
@@ -5826,31 +5826,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J21" t="n">
-        <v>245.2306927803937</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="K21" t="n">
-        <v>579.1554649516142</v>
+        <v>139.2347658407936</v>
       </c>
       <c r="L21" t="n">
-        <v>1074.481071167373</v>
+        <v>634.5603720565524</v>
       </c>
       <c r="M21" t="n">
-        <v>1671.859558793925</v>
+        <v>1231.938859683104</v>
       </c>
       <c r="N21" t="n">
-        <v>2299.457522348532</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="O21" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P21" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q21" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5884,22 +5884,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>513.8536007400712</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C22" t="n">
-        <v>344.9174178121643</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D22" t="n">
-        <v>344.9174178121643</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E22" t="n">
-        <v>344.9174178121643</v>
+        <v>197.0043242297717</v>
       </c>
       <c r="F22" t="n">
-        <v>344.9174178121643</v>
+        <v>197.0043242297717</v>
       </c>
       <c r="G22" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H22" t="n">
         <v>93.81666304797187</v>
@@ -5908,52 +5908,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P22" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R22" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T22" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U22" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V22" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W22" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X22" t="n">
-        <v>916.2946447138411</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y22" t="n">
-        <v>695.5020655703109</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="23">
@@ -5966,61 +5966,61 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004714</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.75955840647</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
-        <v>793.773653616862</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362685</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K23" t="n">
-        <v>852.85236110758</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q23" t="n">
         <v>4562.265728852256</v>
       </c>
       <c r="R23" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T23" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
         <v>3820.749612123003</v>
@@ -6066,25 +6066,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J24" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K24" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="L24" t="n">
-        <v>738.7889117913853</v>
+        <v>589.1422692637307</v>
       </c>
       <c r="M24" t="n">
-        <v>1336.167399417937</v>
+        <v>949.9304447718132</v>
       </c>
       <c r="N24" t="n">
-        <v>1963.765362972544</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O24" t="n">
-        <v>2515.675093211831</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P24" t="n">
-        <v>2515.675093211831</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q24" t="n">
         <v>2553.061288060775</v>
@@ -6121,76 +6121,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>513.8536007400712</v>
+        <v>702.4944101284095</v>
       </c>
       <c r="C25" t="n">
-        <v>344.9174178121643</v>
+        <v>533.5582272005026</v>
       </c>
       <c r="D25" t="n">
-        <v>344.9174178121643</v>
+        <v>383.4415877881669</v>
       </c>
       <c r="E25" t="n">
-        <v>344.9174178121643</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="F25" t="n">
-        <v>344.9174178121643</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G25" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H25" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I25" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P25" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R25" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T25" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U25" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V25" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W25" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X25" t="n">
-        <v>916.2946447138411</v>
+        <v>1104.935454102179</v>
       </c>
       <c r="Y25" t="n">
-        <v>695.5020655703109</v>
+        <v>884.1428749586493</v>
       </c>
     </row>
     <row r="26">
@@ -6215,19 +6215,19 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797189</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192571</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111714</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332387</v>
@@ -6303,28 +6303,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J27" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K27" t="n">
-        <v>577.3880777468471</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="L27" t="n">
-        <v>1072.713683962606</v>
+        <v>589.1422692637307</v>
       </c>
       <c r="M27" t="n">
-        <v>1373.553594266881</v>
+        <v>1186.520756890282</v>
       </c>
       <c r="N27" t="n">
-        <v>2001.151557821488</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O27" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P27" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q27" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6358,22 +6358,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>580.8993044876693</v>
+        <v>721.7774158311364</v>
       </c>
       <c r="C28" t="n">
-        <v>411.9631215597624</v>
+        <v>552.8412329032295</v>
       </c>
       <c r="D28" t="n">
-        <v>411.9631215597624</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E28" t="n">
-        <v>264.0500279773693</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F28" t="n">
-        <v>261.0127623330919</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G28" t="n">
-        <v>93.81666304797187</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H28" t="n">
         <v>93.81666304797187</v>
@@ -6406,28 +6406,28 @@
         <v>2446.963083580261</v>
       </c>
       <c r="R28" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T28" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U28" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V28" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W28" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X28" t="n">
-        <v>983.3403484614391</v>
+        <v>1124.218459804906</v>
       </c>
       <c r="Y28" t="n">
-        <v>762.547769317909</v>
+        <v>903.4258806613761</v>
       </c>
     </row>
     <row r="29">
@@ -6449,34 +6449,34 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H29" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P29" t="n">
         <v>4194.413870694707</v>
@@ -6537,31 +6537,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J30" t="n">
-        <v>243.4633055756266</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="K30" t="n">
-        <v>243.4633055756266</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="L30" t="n">
-        <v>738.7889117913853</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="M30" t="n">
-        <v>1336.167399417937</v>
+        <v>680.0291294438171</v>
       </c>
       <c r="N30" t="n">
-        <v>1344.266747951538</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O30" t="n">
-        <v>1896.176478190825</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P30" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q30" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6595,19 +6595,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>571.6607764188008</v>
+        <v>700.7543264856228</v>
       </c>
       <c r="C31" t="n">
-        <v>402.7245934908939</v>
+        <v>700.7543264856228</v>
       </c>
       <c r="D31" t="n">
-        <v>402.7245934908939</v>
+        <v>550.637687073287</v>
       </c>
       <c r="E31" t="n">
-        <v>402.7245934908939</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F31" t="n">
-        <v>402.7245934908939</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G31" t="n">
         <v>235.5284942057738</v>
@@ -6619,52 +6619,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M31" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P31" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R31" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T31" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U31" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V31" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W31" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X31" t="n">
-        <v>916.2946447138411</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y31" t="n">
-        <v>753.3092412490405</v>
+        <v>700.7543264856228</v>
       </c>
     </row>
     <row r="32">
@@ -6780,19 +6780,19 @@
         <v>93.81666304797187</v>
       </c>
       <c r="K33" t="n">
-        <v>93.81666304797187</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L33" t="n">
-        <v>93.81666304797187</v>
+        <v>923.0670414349513</v>
       </c>
       <c r="M33" t="n">
-        <v>691.1951506745238</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="N33" t="n">
-        <v>1307.627092998424</v>
+        <v>1731.250242493492</v>
       </c>
       <c r="O33" t="n">
-        <v>1859.536823237711</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P33" t="n">
         <v>2283.159972732779</v>
@@ -6832,22 +6832,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>1098.667160263526</v>
+        <v>620.8230468926974</v>
       </c>
       <c r="C34" t="n">
-        <v>929.7309773356194</v>
+        <v>620.8230468926974</v>
       </c>
       <c r="D34" t="n">
-        <v>779.6143379232836</v>
+        <v>470.7064074803617</v>
       </c>
       <c r="E34" t="n">
-        <v>631.7012443408905</v>
+        <v>322.7933138979686</v>
       </c>
       <c r="F34" t="n">
-        <v>484.8112968429802</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="G34" t="n">
-        <v>317.6151975578601</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="H34" t="n">
         <v>175.9033664000582</v>
@@ -6889,19 +6889,19 @@
         <v>1977.461080510509</v>
       </c>
       <c r="U34" t="n">
-        <v>1977.461080510509</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V34" t="n">
-        <v>1729.097755135313</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W34" t="n">
-        <v>1729.097755135313</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X34" t="n">
-        <v>1501.108204237296</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y34" t="n">
-        <v>1280.315625093766</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="35">
@@ -6914,70 +6914,70 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168616</v>
       </c>
       <c r="G35" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R35" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y35" t="n">
         <v>2704.375866615997</v>
@@ -6999,7 +6999,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E36" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F36" t="n">
         <v>314.2396613568978</v>
@@ -7008,34 +7008,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J36" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="K36" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="L36" t="n">
-        <v>119.290296770379</v>
+        <v>590.9096564684978</v>
       </c>
       <c r="M36" t="n">
-        <v>716.6687843969308</v>
+        <v>680.0291294438171</v>
       </c>
       <c r="N36" t="n">
-        <v>1344.266747951538</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O36" t="n">
-        <v>1896.176478190825</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P36" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q36" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7069,76 +7069,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>513.8536007400712</v>
+        <v>513.853600740073</v>
       </c>
       <c r="C37" t="n">
-        <v>344.9174178121643</v>
+        <v>344.9174178121661</v>
       </c>
       <c r="D37" t="n">
-        <v>344.9174178121643</v>
+        <v>344.9174178121661</v>
       </c>
       <c r="E37" t="n">
-        <v>344.9174178121643</v>
+        <v>197.004324229773</v>
       </c>
       <c r="F37" t="n">
-        <v>344.9174178121643</v>
+        <v>197.004324229773</v>
       </c>
       <c r="G37" t="n">
-        <v>177.7213185270443</v>
+        <v>197.004324229773</v>
       </c>
       <c r="H37" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J37" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M37" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O37" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P37" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853363</v>
       </c>
       <c r="Q37" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580262</v>
       </c>
       <c r="R37" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832665</v>
       </c>
       <c r="S37" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487569</v>
       </c>
       <c r="T37" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.46108051051</v>
       </c>
       <c r="U37" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854708</v>
       </c>
       <c r="V37" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.701365648821</v>
       </c>
       <c r="W37" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.28419561186</v>
       </c>
       <c r="X37" t="n">
-        <v>916.2946447138411</v>
+        <v>916.2946447138429</v>
       </c>
       <c r="Y37" t="n">
-        <v>695.5020655703109</v>
+        <v>695.5020655703128</v>
       </c>
     </row>
     <row r="38">
@@ -7151,7 +7151,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D38" t="n">
         <v>1590.547811004713</v>
@@ -7160,22 +7160,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168616</v>
       </c>
       <c r="G38" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
@@ -7184,28 +7184,28 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R38" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T38" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V38" t="n">
         <v>3820.749612123003</v>
@@ -7236,7 +7236,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E39" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F39" t="n">
         <v>314.2396613568978</v>
@@ -7245,34 +7245,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I39" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J39" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K39" t="n">
-        <v>579.1554649516142</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L39" t="n">
-        <v>1074.481071167373</v>
+        <v>506.2737913123336</v>
       </c>
       <c r="M39" t="n">
-        <v>1671.859558793925</v>
+        <v>1103.652278938886</v>
       </c>
       <c r="N39" t="n">
-        <v>2299.457522348532</v>
+        <v>1731.250242493492</v>
       </c>
       <c r="O39" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P39" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q39" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7306,76 +7306,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>513.8536007400712</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C40" t="n">
-        <v>344.9174178121643</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D40" t="n">
-        <v>344.9174178121643</v>
+        <v>194.8007783998291</v>
       </c>
       <c r="E40" t="n">
-        <v>344.9174178121643</v>
+        <v>194.8007783998291</v>
       </c>
       <c r="F40" t="n">
-        <v>344.9174178121643</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="G40" t="n">
-        <v>177.7213185270443</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H40" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J40" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M40" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O40" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P40" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R40" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T40" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U40" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V40" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W40" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X40" t="n">
-        <v>916.2946447138411</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y40" t="n">
-        <v>695.5020655703109</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="41">
@@ -7388,13 +7388,13 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C41" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004714</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.75955840647</v>
       </c>
       <c r="F41" t="n">
         <v>793.7736536168611</v>
@@ -7403,16 +7403,16 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J41" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
@@ -7421,37 +7421,37 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P41" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R41" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S41" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T41" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y41" t="n">
         <v>2704.375866615997</v>
@@ -7473,7 +7473,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E42" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F42" t="n">
         <v>314.2396613568978</v>
@@ -7482,34 +7482,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H42" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J42" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="K42" t="n">
-        <v>93.81666304797187</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L42" t="n">
-        <v>93.81666304797187</v>
+        <v>923.0670414349513</v>
       </c>
       <c r="M42" t="n">
-        <v>691.1951506745238</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="N42" t="n">
-        <v>1318.79311422913</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="O42" t="n">
-        <v>1870.702844468417</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P42" t="n">
-        <v>2294.325993963485</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q42" t="n">
-        <v>2527.587654338368</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7543,76 +7543,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>803.2707707770319</v>
+        <v>718.550723916711</v>
       </c>
       <c r="C43" t="n">
-        <v>634.334587849125</v>
+        <v>549.6145409888042</v>
       </c>
       <c r="D43" t="n">
-        <v>484.2179484367892</v>
+        <v>549.6145409888042</v>
       </c>
       <c r="E43" t="n">
-        <v>484.2179484367892</v>
+        <v>549.6145409888042</v>
       </c>
       <c r="F43" t="n">
-        <v>484.2179484367892</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G43" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H43" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J43" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M43" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N43" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O43" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P43" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R43" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T43" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U43" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V43" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W43" t="n">
-        <v>1433.701365648819</v>
+        <v>1348.981318788498</v>
       </c>
       <c r="X43" t="n">
-        <v>1205.711814750802</v>
+        <v>1120.991767890481</v>
       </c>
       <c r="Y43" t="n">
-        <v>984.9192356072716</v>
+        <v>900.1991887469508</v>
       </c>
     </row>
     <row r="44">
@@ -7637,7 +7637,7 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H44" t="n">
         <v>93.81666304797189</v>
@@ -7646,10 +7646,10 @@
         <v>95.34095638192599</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
@@ -7710,7 +7710,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E45" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F45" t="n">
         <v>314.2396613568978</v>
@@ -7719,31 +7719,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H45" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J45" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="K45" t="n">
-        <v>577.3880777468471</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="L45" t="n">
-        <v>1072.713683962606</v>
+        <v>589.1422692637307</v>
       </c>
       <c r="M45" t="n">
-        <v>1670.092171589158</v>
+        <v>1186.520756890282</v>
       </c>
       <c r="N45" t="n">
-        <v>2297.690135143765</v>
+        <v>1767.889897446606</v>
       </c>
       <c r="O45" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="P45" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q45" t="n">
         <v>2553.061288060775</v>
@@ -7780,76 +7780,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>513.8536007400712</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C46" t="n">
-        <v>344.9174178121643</v>
+        <v>408.925855915485</v>
       </c>
       <c r="D46" t="n">
-        <v>344.9174178121643</v>
+        <v>408.925855915485</v>
       </c>
       <c r="E46" t="n">
-        <v>344.9174178121643</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F46" t="n">
-        <v>344.9174178121643</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G46" t="n">
-        <v>177.7213185270443</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H46" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I46" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J46" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M46" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N46" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O46" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P46" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q46" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R46" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T46" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U46" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V46" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W46" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X46" t="n">
-        <v>916.2946447138411</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y46" t="n">
-        <v>695.5020655703109</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
   </sheetData>
@@ -8055,7 +8055,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>50.07369958270193</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
         <v>264.4652370125786</v>
@@ -8064,10 +8064,10 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M3" t="n">
-        <v>465.7050637499999</v>
+        <v>346.2692436516219</v>
       </c>
       <c r="N3" t="n">
-        <v>435.9238900028826</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O3" t="n">
         <v>393.8623192767295</v>
@@ -8231,7 +8231,7 @@
         <v>380.8001812627454</v>
       </c>
       <c r="P5" t="n">
-        <v>321.7987081714826</v>
+        <v>321.7987081714823</v>
       </c>
       <c r="Q5" t="n">
         <v>212.3149906599047</v>
@@ -8298,10 +8298,10 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
-        <v>370.8403453034592</v>
+        <v>251.4045252050821</v>
       </c>
       <c r="M6" t="n">
-        <v>346.2692436516226</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N6" t="n">
         <v>479.3423743435536</v>
@@ -8462,16 +8462,16 @@
         <v>449.5135334928325</v>
       </c>
       <c r="N8" t="n">
-        <v>359.9458024792946</v>
+        <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>0</v>
+        <v>147.6308118193893</v>
       </c>
       <c r="P8" t="n">
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R8" t="n">
         <v>65.71641987298243</v>
@@ -8529,19 +8529,19 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>6.233205181928369</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>283.1760056204237</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M9" t="n">
-        <v>465.7050637499999</v>
+        <v>49.02423357323903</v>
       </c>
       <c r="N9" t="n">
-        <v>0</v>
+        <v>473.6238973478235</v>
       </c>
       <c r="O9" t="n">
         <v>393.8623192767295</v>
@@ -8690,13 +8690,13 @@
         <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>-1.477928890381008e-12</v>
+        <v>0</v>
       </c>
       <c r="L11" t="n">
         <v>0</v>
       </c>
       <c r="M11" t="n">
-        <v>0</v>
+        <v>1.364242052659392e-12</v>
       </c>
       <c r="N11" t="n">
         <v>0</v>
@@ -9161,7 +9161,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>5.684341886080801e-13</v>
+        <v>0</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
@@ -9413,7 +9413,7 @@
         <v>0</v>
       </c>
       <c r="O20" t="n">
-        <v>0</v>
+        <v>-1.364242052659392e-12</v>
       </c>
       <c r="P20" t="n">
         <v>0</v>
@@ -10118,7 +10118,7 @@
         <v>0</v>
       </c>
       <c r="M29" t="n">
-        <v>0</v>
+        <v>-1.204770029246527e-12</v>
       </c>
       <c r="N29" t="n">
         <v>0</v>
@@ -10838,10 +10838,10 @@
         <v>0</v>
       </c>
       <c r="P38" t="n">
-        <v>0</v>
+        <v>-2.273736754432321e-13</v>
       </c>
       <c r="Q38" t="n">
-        <v>1.13686837721616e-13</v>
+        <v>0</v>
       </c>
       <c r="R38" t="n">
         <v>0</v>
@@ -11057,7 +11057,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>5.684341886080801e-13</v>
+        <v>0</v>
       </c>
       <c r="K41" t="n">
         <v>0</v>
@@ -11075,7 +11075,7 @@
         <v>0</v>
       </c>
       <c r="P41" t="n">
-        <v>0</v>
+        <v>-2.273736754432321e-13</v>
       </c>
       <c r="Q41" t="n">
         <v>0</v>
@@ -23264,7 +23264,7 @@
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>3.979039320256561e-13</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
@@ -23416,22 +23416,22 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>99.7605018907548</v>
       </c>
       <c r="G13" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -23461,10 +23461,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23482,7 +23482,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>25.74504007796071</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23653,25 +23653,25 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>46.45968844823102</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>57.22910392194355</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23890,22 +23890,22 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>41.54258064659095</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>57.22910392194221</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
         <v>81.26583631856553</v>
@@ -24133,19 +24133,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>57.22910392194223</v>
+        <v>63.36835372228705</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24367,22 +24367,22 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>138.4949402405078</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24427,7 +24427,7 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>186.7544012944545</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -24604,19 +24604,19 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>142.4141550350967</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>81.26583631856552</v>
@@ -24646,7 +24646,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -24664,7 +24664,7 @@
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>205.844576940154</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -24835,16 +24835,16 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>145.4210480229312</v>
@@ -24856,7 +24856,7 @@
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24904,7 +24904,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>57.22910392194223</v>
+        <v>5.199738306158224</v>
       </c>
     </row>
     <row r="32">
@@ -25072,10 +25072,10 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>105.8997516910995</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
@@ -25087,10 +25087,10 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -25129,13 +25129,13 @@
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>6.257951202384504</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
@@ -25318,19 +25318,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>57.22910392194221</v>
+        <v>119.4047645948063</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25552,22 +25552,22 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>126.7126101431582</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>57.22910392194221</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25789,22 +25789,22 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0.5874149221291134</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25846,7 +25846,7 @@
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>286.522998336591</v>
+        <v>202.6501519448728</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
@@ -26023,13 +26023,13 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>63.36835372228708</v>
       </c>
       <c r="D46" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>145.4210480229312</v>
@@ -26038,10 +26038,10 @@
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>57.22910392194221</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>812026.1514101049</v>
+        <v>812026.1514101048</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>812026.1514101048</v>
+        <v>812026.1514101049</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>812026.1514101048</v>
+        <v>812026.1514101049</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26203,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>812026.1514101049</v>
+        <v>812026.1514101048</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26211,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>812026.1514101048</v>
+        <v>812026.1514101049</v>
       </c>
     </row>
     <row r="14">
@@ -26227,7 +26227,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>812026.1514101049</v>
+        <v>812026.1514101048</v>
       </c>
     </row>
     <row r="16">
@@ -26311,49 +26311,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>615781.3273982126</v>
+        <v>615781.3273982127</v>
       </c>
       <c r="C2" t="n">
         <v>615781.3273982126</v>
       </c>
       <c r="D2" t="n">
-        <v>615781.3273982126</v>
+        <v>615781.327398212</v>
       </c>
       <c r="E2" t="n">
+        <v>605359.9497675045</v>
+      </c>
+      <c r="F2" t="n">
         <v>605359.9497675041</v>
-      </c>
-      <c r="F2" t="n">
-        <v>605359.9497675044</v>
       </c>
       <c r="G2" t="n">
         <v>605359.9497675042</v>
       </c>
       <c r="H2" t="n">
-        <v>605359.9497675041</v>
+        <v>605359.9497675044</v>
       </c>
       <c r="I2" t="n">
-        <v>605359.9497675041</v>
+        <v>605359.9497675046</v>
       </c>
       <c r="J2" t="n">
+        <v>605359.9497675042</v>
+      </c>
+      <c r="K2" t="n">
+        <v>605359.9497675046</v>
+      </c>
+      <c r="L2" t="n">
+        <v>605359.9497675044</v>
+      </c>
+      <c r="M2" t="n">
         <v>605359.9497675045</v>
       </c>
-      <c r="K2" t="n">
-        <v>605359.9497675042</v>
-      </c>
-      <c r="L2" t="n">
+      <c r="N2" t="n">
         <v>605359.9497675045</v>
-      </c>
-      <c r="M2" t="n">
-        <v>605359.9497675042</v>
-      </c>
-      <c r="N2" t="n">
-        <v>605359.9497675046</v>
       </c>
       <c r="O2" t="n">
         <v>605359.9497675042</v>
       </c>
       <c r="P2" t="n">
-        <v>605359.949767504</v>
+        <v>605359.9497675042</v>
       </c>
     </row>
     <row r="3">
@@ -26381,22 +26381,22 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>1.741016149026109e-10</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.2191925932</v>
+        <v>176423.2191925929</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>1.62584001373034e-10</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>124208.5107080583</v>
+        <v>124208.5107080586</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26421,40 +26421,40 @@
         <v>209922.4154630333</v>
       </c>
       <c r="D4" t="n">
-        <v>176266.9759012793</v>
+        <v>176266.9759012794</v>
       </c>
       <c r="E4" t="n">
-        <v>5677.53656668272</v>
+        <v>5677.536566682758</v>
       </c>
       <c r="F4" t="n">
+        <v>5677.536566682745</v>
+      </c>
+      <c r="G4" t="n">
         <v>5677.536566682744</v>
       </c>
-      <c r="G4" t="n">
-        <v>5677.536566682738</v>
-      </c>
       <c r="H4" t="n">
-        <v>5677.536566682745</v>
+        <v>5677.536566682723</v>
       </c>
       <c r="I4" t="n">
-        <v>5677.536566682745</v>
+        <v>5677.536566682736</v>
       </c>
       <c r="J4" t="n">
         <v>5677.536566682745</v>
       </c>
       <c r="K4" t="n">
+        <v>5677.536566682718</v>
+      </c>
+      <c r="L4" t="n">
+        <v>5677.536566682744</v>
+      </c>
+      <c r="M4" t="n">
         <v>5677.536566682745</v>
       </c>
-      <c r="L4" t="n">
-        <v>5677.536566682745</v>
-      </c>
-      <c r="M4" t="n">
-        <v>5677.536566682768</v>
-      </c>
       <c r="N4" t="n">
-        <v>5677.536566682758</v>
+        <v>5677.536566682723</v>
       </c>
       <c r="O4" t="n">
-        <v>5677.536566682775</v>
+        <v>5677.536566682689</v>
       </c>
       <c r="P4" t="n">
         <v>5677.536566682745</v>
@@ -26473,7 +26473,7 @@
         <v>82859.07806340946</v>
       </c>
       <c r="D5" t="n">
-        <v>87562.0451708468</v>
+        <v>87562.04517084679</v>
       </c>
       <c r="E5" t="n">
         <v>101122.5298239071</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-266968.0453427746</v>
+        <v>-266968.0453427745</v>
       </c>
       <c r="C6" t="n">
         <v>322999.8338717698</v>
       </c>
       <c r="D6" t="n">
-        <v>167196.0277779749</v>
+        <v>167196.0277779743</v>
       </c>
       <c r="E6" t="n">
-        <v>-272492.8080038922</v>
+        <v>-272527.5459293277</v>
       </c>
       <c r="F6" t="n">
-        <v>498559.8833769145</v>
+        <v>498525.1454514785</v>
       </c>
       <c r="G6" t="n">
-        <v>498559.8833769146</v>
+        <v>498525.1454514787</v>
       </c>
       <c r="H6" t="n">
-        <v>498559.8833769143</v>
+        <v>498525.1454514787</v>
       </c>
       <c r="I6" t="n">
-        <v>498559.8833769143</v>
+        <v>498525.145451479</v>
       </c>
       <c r="J6" t="n">
-        <v>322136.6641843215</v>
+        <v>322101.9262588858</v>
       </c>
       <c r="K6" t="n">
-        <v>498559.8833769145</v>
+        <v>498525.145451479</v>
       </c>
       <c r="L6" t="n">
-        <v>498559.8833769145</v>
+        <v>498525.1454514788</v>
       </c>
       <c r="M6" t="n">
-        <v>374351.372668856</v>
+        <v>374316.6347434202</v>
       </c>
       <c r="N6" t="n">
-        <v>498559.8833769147</v>
+        <v>498525.1454514789</v>
       </c>
       <c r="O6" t="n">
-        <v>498559.8833769144</v>
+        <v>498525.1454514787</v>
       </c>
       <c r="P6" t="n">
-        <v>498559.8833769141</v>
+        <v>498525.1454514787</v>
       </c>
     </row>
   </sheetData>
@@ -26738,7 +26738,7 @@
         <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="D3" t="n">
         <v>593.4761003380651</v>
@@ -26787,16 +26787,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="C4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="E4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="F4" t="n">
         <v>1172.708288099648</v>
@@ -26820,16 +26820,16 @@
         <v>1172.708288099648</v>
       </c>
       <c r="M4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="N4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="O4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="P4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
     </row>
   </sheetData>
@@ -26966,7 +26966,7 @@
         <v>215.7324361209784</v>
       </c>
       <c r="E3" t="n">
-        <v>774.4994000036089</v>
+        <v>774.4994000036087</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26975,19 +26975,19 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -27009,7 +27009,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>498.4210153450928</v>
+        <v>498.4210153450931</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>498.4210153450928</v>
+        <v>498.4210153450933</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27255,7 +27255,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>498.4210153450928</v>
+        <v>498.4210153450931</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27379,25 +27379,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>39.06311083518779</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27427,25 +27427,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>38.53009859677877</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27534,16 +27534,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>145.4210480229312</v>
@@ -27585,16 +27585,16 @@
         <v>146.6651919801579</v>
       </c>
       <c r="S4" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2818742419777</v>
+        <v>229.5548768001848</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
@@ -27603,7 +27603,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>46.83478528866331</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -27613,22 +27613,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>375.9469818809424</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
         <v>323.9227727643571</v>
@@ -27664,10 +27664,10 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>216.4483203576578</v>
+        <v>32.56634295703051</v>
       </c>
       <c r="U5" t="n">
         <v>251.2241675082893</v>
@@ -27682,7 +27682,7 @@
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27795,7 +27795,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>45.19995918853699</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27819,28 +27819,28 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801578</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>83.12091415361536</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T7" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>209.3638067647188</v>
       </c>
     </row>
     <row r="8">
@@ -27853,25 +27853,25 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>180.4524711573752</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>315.0408840752156</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>118.4960408938903</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27907,16 +27907,16 @@
         <v>212.651863114966</v>
       </c>
       <c r="U8" t="n">
-        <v>251.1547862223006</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>162.1041269376147</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -28011,19 +28011,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>63.23223392544212</v>
+        <v>166.9207765545704</v>
       </c>
       <c r="H10" t="n">
         <v>152.7120966692326</v>
@@ -28056,28 +28056,28 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>129.1731816677913</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>106.6372753043364</v>
       </c>
       <c r="T10" t="n">
-        <v>223.3729047207587</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>286.260654658097</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -28102,7 +28102,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>-1.70530256582424e-13</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -28339,7 +28339,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -28506,7 +28506,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>-1.696776052995119e-12</v>
+        <v>0</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -29995,7 +29995,7 @@
         <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
         <v>0</v>
@@ -30183,7 +30183,7 @@
         <v>0</v>
       </c>
       <c r="P37" t="n">
-        <v>0</v>
+        <v>1.319714707885093e-12</v>
       </c>
       <c r="Q37" t="n">
         <v>0</v>
@@ -30235,7 +30235,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>-1.105823316955884e-14</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -30277,7 +30277,7 @@
         <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>2.557953848736361e-13</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -30460,7 +30460,7 @@
         <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
         <v>0</v>
@@ -30469,7 +30469,7 @@
         <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>-1.125499693443999e-12</v>
       </c>
       <c r="G41" t="n">
         <v>0</v>
@@ -31282,19 +31282,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L5" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N5" t="n">
         <v>270.9617944338304</v>
@@ -31309,13 +31309,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31355,16 +31355,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I6" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31382,22 +31382,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q6" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S6" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,16 +31434,16 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I7" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K7" t="n">
         <v>79.14039391302239</v>
@@ -31458,16 +31458,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P7" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S7" t="n">
         <v>11.87105908695336</v>
@@ -31750,7 +31750,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H11" t="n">
         <v>56.32071997135341</v>
@@ -31762,31 +31762,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S11" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T11" t="n">
         <v>24.07361910651528</v>
@@ -31829,49 +31829,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H12" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
         <v>99.52238</v>
       </c>
       <c r="J12" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422586</v>
+        <v>260.1710714068256</v>
       </c>
       <c r="L12" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N12" t="n">
-        <v>302.5540177178164</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q12" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R12" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31911,25 +31911,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O13" t="n">
         <v>348.6767717920058</v>
@@ -31938,19 +31938,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,7 +31987,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H14" t="n">
         <v>56.32071997135341</v>
@@ -31999,31 +31999,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L14" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S14" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
@@ -32066,49 +32066,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H15" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J15" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422586</v>
+        <v>295.3955842839429</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071786</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O15" t="n">
-        <v>400.5469039565762</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P15" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q15" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R15" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32148,25 +32148,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O16" t="n">
         <v>348.6767717920058</v>
@@ -32175,19 +32175,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32312,13 +32312,13 @@
         <v>99.52238</v>
       </c>
       <c r="J18" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473072</v>
+        <v>211.7351844430274</v>
       </c>
       <c r="M18" t="n">
         <v>745.5466476862121</v>
@@ -32330,13 +32330,13 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P18" t="n">
-        <v>322.8964653704906</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q18" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S18" t="n">
         <v>54.65449286742438</v>
@@ -32461,7 +32461,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H20" t="n">
         <v>56.32071997135341</v>
@@ -32473,31 +32473,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L20" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S20" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
@@ -32540,49 +32540,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H21" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I21" t="n">
         <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K21" t="n">
-        <v>475.1391886422585</v>
+        <v>181.9330708814848</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O21" t="n">
-        <v>398.7616643558013</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P21" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q21" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R21" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32622,25 +32622,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O22" t="n">
         <v>348.6767717920058</v>
@@ -32649,19 +32649,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,7 +32698,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
@@ -32710,31 +32710,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L23" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S23" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32777,49 +32777,49 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H24" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I24" t="n">
         <v>99.52238</v>
       </c>
       <c r="J24" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K24" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L24" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862121</v>
+        <v>506.566534435233</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P24" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q24" t="n">
-        <v>177.7456072667729</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32859,25 +32859,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32886,19 +32886,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -33023,31 +33023,31 @@
         <v>99.52238</v>
       </c>
       <c r="J27" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K27" t="n">
-        <v>475.1391886422586</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L27" t="n">
         <v>638.8832749473073</v>
       </c>
       <c r="M27" t="n">
-        <v>446.012731199064</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071786</v>
+        <v>253.6713445157994</v>
       </c>
       <c r="O27" t="n">
         <v>700.0808204437244</v>
       </c>
       <c r="P27" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q27" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R27" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S27" t="n">
         <v>54.65449286742439</v>
@@ -33172,7 +33172,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H29" t="n">
         <v>56.32071997135341</v>
@@ -33184,31 +33184,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L29" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S29" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
@@ -33251,49 +33251,49 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H30" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I30" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L30" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862121</v>
+        <v>395.1848490935915</v>
       </c>
       <c r="N30" t="n">
-        <v>139.5228722182831</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q30" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R30" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33333,25 +33333,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O31" t="n">
         <v>348.6767717920058</v>
@@ -33360,19 +33360,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33500,22 +33500,22 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L33" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M33" t="n">
         <v>745.5466476862122</v>
       </c>
       <c r="N33" t="n">
-        <v>754.0002396832324</v>
+        <v>344.2757660550394</v>
       </c>
       <c r="O33" t="n">
         <v>700.0808204437244</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
         <v>375.5996128485291</v>
@@ -33646,7 +33646,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H35" t="n">
         <v>56.32071997135341</v>
@@ -33658,31 +33658,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L35" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S35" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
@@ -33725,13 +33725,13 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H36" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I36" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
         <v>126.8376266666667</v>
@@ -33740,34 +33740,34 @@
         <v>137.841438974359</v>
       </c>
       <c r="L36" t="n">
-        <v>164.2853229338207</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862121</v>
+        <v>232.153703594058</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q36" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R36" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33807,25 +33807,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O37" t="n">
         <v>348.6767717920058</v>
@@ -33834,19 +33834,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,7 +33883,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H38" t="n">
         <v>56.32071997135341</v>
@@ -33895,31 +33895,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L38" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S38" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
@@ -33962,49 +33962,49 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H39" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I39" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J39" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473072</v>
+        <v>404.0195168876591</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O39" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P39" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R39" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34044,25 +34044,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O40" t="n">
         <v>348.6767717920058</v>
@@ -34071,19 +34071,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,7 +34120,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H41" t="n">
         <v>56.32071997135341</v>
@@ -34132,31 +34132,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L41" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S41" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T41" t="n">
         <v>24.07361910651528</v>
@@ -34199,10 +34199,10 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H42" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I42" t="n">
         <v>99.52238</v>
@@ -34211,37 +34211,37 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L42" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437243</v>
+        <v>485.1127032082907</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q42" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R42" t="n">
-        <v>171.4104471179106</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34281,25 +34281,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O43" t="n">
         <v>348.6767717920058</v>
@@ -34308,19 +34308,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,7 +34357,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H44" t="n">
         <v>56.32071997135341</v>
@@ -34369,31 +34369,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L44" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S44" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T44" t="n">
         <v>24.07361910651528</v>
@@ -34436,49 +34436,49 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H45" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I45" t="n">
         <v>99.52238</v>
       </c>
       <c r="J45" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K45" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L45" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071785</v>
+        <v>718.5832682008314</v>
       </c>
       <c r="O45" t="n">
-        <v>400.5469039565762</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P45" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R45" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T45" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34518,25 +34518,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H46" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O46" t="n">
         <v>348.6767717920058</v>
@@ -34545,19 +34545,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R46" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34775,7 +34775,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K3" t="n">
         <v>257.8255762031298</v>
@@ -34784,10 +34784,10 @@
         <v>408.7029475713857</v>
       </c>
       <c r="M3" t="n">
-        <v>529.4413268262938</v>
+        <v>410.0055067279158</v>
       </c>
       <c r="N3" t="n">
-        <v>515.9012490932192</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O3" t="n">
         <v>444.5817404245898</v>
@@ -34933,25 +34933,25 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K5" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O5" t="n">
         <v>406.5635087530452</v>
       </c>
       <c r="P5" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116794</v>
       </c>
       <c r="Q5" t="n">
         <v>153.9975062898689</v>
@@ -35012,25 +35012,25 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.01733575770692</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K6" t="n">
         <v>257.8255762031298</v>
       </c>
       <c r="L6" t="n">
-        <v>408.7029475713857</v>
+        <v>289.2671274730086</v>
       </c>
       <c r="M6" t="n">
-        <v>410.0055067279164</v>
+        <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O6" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q6" t="n">
         <v>173.8110948137341</v>
@@ -35182,16 +35182,16 @@
         <v>638.0987989730422</v>
       </c>
       <c r="N8" t="n">
-        <v>556.2429872186707</v>
+        <v>196.2971847393761</v>
       </c>
       <c r="O8" t="n">
-        <v>171.8879043605652</v>
+        <v>319.5187161799544</v>
       </c>
       <c r="P8" t="n">
         <v>111.8528537874005</v>
       </c>
       <c r="Q8" t="n">
-        <v>35.33749497130819</v>
+        <v>247.6524856312129</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35249,19 +35249,19 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>119.8578301584805</v>
       </c>
       <c r="K9" t="n">
-        <v>332.7559639452625</v>
+        <v>68.29072693268387</v>
       </c>
       <c r="L9" t="n">
-        <v>421.7917611918317</v>
+        <v>509.4561008748672</v>
       </c>
       <c r="M9" t="n">
-        <v>647.0155045122269</v>
+        <v>230.3346743354661</v>
       </c>
       <c r="N9" t="n">
-        <v>200.663375406732</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="O9" t="n">
         <v>554.9858674269929</v>
@@ -35404,34 +35404,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J11" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367756</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L11" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M11" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902961</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,31 +35486,31 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>337.2977496678996</v>
+        <v>122.3296324324666</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M12" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>171.2123056344831</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q12" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35565,22 +35565,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K13" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N13" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P13" t="n">
         <v>295.631773306625</v>
@@ -35641,34 +35641,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J14" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L14" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M14" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O14" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35720,31 +35720,31 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J15" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>337.2977496678996</v>
+        <v>157.5541453095838</v>
       </c>
       <c r="L15" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M15" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238454</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>257.9506595121318</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,22 +35802,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295172</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K16" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N16" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35881,7 +35881,7 @@
         <v>1.539690236317256</v>
       </c>
       <c r="J17" t="n">
-        <v>285.7087110396425</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
         <v>479.454324036777</v>
@@ -35960,13 +35960,13 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>500.328895167433</v>
+        <v>73.18080466315317</v>
       </c>
       <c r="M18" t="n">
         <v>603.4126137641938</v>
@@ -35978,13 +35978,13 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P18" t="n">
-        <v>188.9220579561604</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36115,34 +36115,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L20" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M20" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O20" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243148</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36194,34 +36194,34 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J21" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>337.2977496678996</v>
+        <v>44.09163190712582</v>
       </c>
       <c r="L21" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M21" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O21" t="n">
-        <v>256.1654199113569</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36276,22 +36276,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K22" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N22" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36352,34 +36352,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L23" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M23" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O23" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902399</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36434,28 +36434,28 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M24" t="n">
-        <v>603.4126137641938</v>
+        <v>364.4325005132147</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O24" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q24" t="n">
-        <v>37.7638331807514</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36513,22 +36513,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K25" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36671,31 +36671,31 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
         <v>500.3288951674331</v>
       </c>
       <c r="M27" t="n">
-        <v>303.8786972770457</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238454</v>
+        <v>122.3296324324661</v>
       </c>
       <c r="O27" t="n">
         <v>557.48457599928</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36826,34 +36826,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L29" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M29" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902934</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O29" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36905,34 +36905,34 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J30" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>603.4126137641938</v>
+        <v>253.0508151715732</v>
       </c>
       <c r="N30" t="n">
-        <v>8.181160134949776</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O30" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q30" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36987,22 +36987,22 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K31" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N31" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P31" t="n">
         <v>295.631773306625</v>
@@ -37148,22 +37148,22 @@
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M33" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>622.6585275998991</v>
+        <v>212.9340539717061</v>
       </c>
       <c r="O33" t="n">
         <v>557.48457599928</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
         <v>235.6178387625076</v>
@@ -37300,34 +37300,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L35" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M35" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O35" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37379,7 +37379,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -37388,25 +37388,25 @@
         <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>25.73094315394657</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M36" t="n">
-        <v>603.4126137641938</v>
+        <v>90.01966967203964</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O36" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q36" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37461,25 +37461,25 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K37" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L37" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M37" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N37" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P37" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066263</v>
       </c>
       <c r="Q37" t="n">
         <v>120.4022572998984</v>
@@ -37537,25 +37537,25 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L38" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M38" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O38" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P38" t="n">
         <v>559.5874541683811</v>
@@ -37564,7 +37564,7 @@
         <v>371.5675334924729</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37616,34 +37616,34 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>500.328895167433</v>
+        <v>265.4651371077849</v>
       </c>
       <c r="M39" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O39" t="n">
-        <v>256.1654199113569</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37698,22 +37698,22 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K40" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L40" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N40" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P40" t="n">
         <v>295.631773306625</v>
@@ -37774,34 +37774,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J41" t="n">
-        <v>285.7087110396425</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L41" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M41" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O41" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P41" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37859,28 +37859,28 @@
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M42" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>557.4845759992799</v>
+        <v>342.5164587638463</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q42" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R42" t="n">
-        <v>25.73094315394662</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37935,22 +37935,22 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K43" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L43" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M43" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N43" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P43" t="n">
         <v>295.631773306625</v>
@@ -38011,34 +38011,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L44" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M44" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O44" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38093,28 +38093,28 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M45" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238452</v>
+        <v>587.2415561174981</v>
       </c>
       <c r="O45" t="n">
-        <v>257.9506595121318</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P45" t="n">
         <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38172,22 +38172,22 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K46" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L46" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M46" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N46" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O46" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P46" t="n">
         <v>295.631773306625</v>
